--- a/data/post_internal/discarded_internal_suggestions.xlsx
+++ b/data/post_internal/discarded_internal_suggestions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,83 +755,105 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>الخياطة و  تغليف مقاعد السيارات</t>
+          <t>Soudeur</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>الخياطة والتفصيل</t>
+          <t>Soudeur tig arc</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>الخياطة و  تغليف مقاعد السيارات-الخياطة والتفصيل</t>
+          <t>Soudeur-Soudeur tig arc</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>البناء</t>
+          <t>الخياطة و  تغليف مقاعد السيارات</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>البناء</t>
+          <t>الخياطة والتفصيل</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>البناء-البناء</t>
+          <t>الخياطة و  تغليف مقاعد السيارات-الخياطة والتفصيل</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Peintre et plaquiste</t>
+          <t>البناء</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>دهان للمنازل والعمارات ومختلف انواع الديكورات والاسقف الجبسية Ba13</t>
+          <t>البناء</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Peintre et plaquiste-دهان للمنازل والعمارات ومختلف انواع الديكورات والاسقف الجبسية Ba13</t>
+          <t>البناء-البناء</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Peintre et plaquiste</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>دهان للمنازل والعمارات ومختلف انواع الديكورات والاسقف الجبسية Ba13</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Peintre et plaquiste-دهان للمنازل والعمارات ومختلف انواع الديكورات والاسقف الجبسية Ba13</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>الأشغال الصغيرة للبناء والدهن</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>كل أعمال الجبس الفنية _x000D_
 حرفي جباس _x000D_
 اعما الجبس الفنية</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>الأشغال الصغيرة للبناء والدهن-كل أعمال الجبس الفنية _x000D_
 حرفي جباس _x000D_
@@ -839,108 +861,108 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>الترويج والتسويق و الاشهار لمنتجات الحرفيين من المنزل</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>استعمال وسائط التواصل الاجتماعي للاشهار والترويج و التسويق لمنتجات الحرفيين من المنزل</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>الترويج والتسويق و الاشهار لمنتجات الحرفيين من المنزل-استعمال وسائط التواصل الاجتماعي للاشهار والترويج و التسويق لمنتجات الحرفيين من المنزل</t>
-        </is>
-      </c>
-    </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>سياحة وكالة أسفار</t>
+          <t>الترويج والتسويق و الاشهار لمنتجات الحرفيين من المنزل</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>تنظيم الرحلات و حجز الفنادق و تذاكر الطائرات و كراء السيارات و إعداد ملفات طلب التأشيرة</t>
+          <t>استعمال وسائط التواصل الاجتماعي للاشهار والترويج و التسويق لمنتجات الحرفيين من المنزل</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>سياحة وكالة أسفار-تنظيم الرحلات و حجز الفنادق و تذاكر الطائرات و كراء السيارات و إعداد ملفات طلب التأشيرة</t>
+          <t>الترويج والتسويق و الاشهار لمنتجات الحرفيين من المنزل-استعمال وسائط التواصل الاجتماعي للاشهار والترويج و التسويق لمنتجات الحرفيين من المنزل</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services de loisirs et de récréation</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>صناعة ديكورات من المنزل</t>
+          <t>سياحة وكالة أسفار</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>صناعة ديكورات مختلفة الخامة والاشكال في المنزل</t>
+          <t>تنظيم الرحلات و حجز الفنادق و تذاكر الطائرات و كراء السيارات و إعداد ملفات طلب التأشيرة</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>صناعة ديكورات من المنزل-صناعة ديكورات مختلفة الخامة والاشكال في المنزل</t>
+          <t>سياحة وكالة أسفار-تنظيم الرحلات و حجز الفنادق و تذاكر الطائرات و كراء السيارات و إعداد ملفات طلب التأشيرة</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>صناعة ديكورات من المنزل</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>صناعة ديكورات مختلفة الخامة والاشكال في المنزل</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>صناعة ديكورات من المنزل-صناعة ديكورات مختلفة الخامة والاشكال في المنزل</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>مستشار في تسيير الموارد البشرية</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>تقديم استشارات و حلول و ايضا تكوين في _x000D_
  ميدان الموارد البشرية للمؤسسات او للمراكز التكوينية</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>مستشار في تسيير الموارد البشرية-تقديم استشارات و حلول و ايضا تكوين في _x000D_
  ميدان الموارد البشرية للمؤسسات او للمراكز التكوينية</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Design d'intérieur</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Bonjour,_x000D_
 _x000D_
@@ -955,7 +977,7 @@
 Cordialement</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Design d'intérieur-Bonjour,_x000D_
 _x000D_
@@ -971,65 +993,47 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Services de loisirs et de récréation</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Guide touristique et organisateur de sortie touristique</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>il à pour mission d'organiser des randonnées journalière pour faire découvrir les beaux endroits en Algérie et de gérer un groupe</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Guide touristique et organisateur de sortie touristique-il à pour mission d'organiser des randonnées journalière pour faire découvrir les beaux endroits en Algérie et de gérer un groupe</t>
-        </is>
-      </c>
-    </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Services de loisirs et de récréation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Guide touristique et organisateur de sortie touristique</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>il à pour mission d'organiser des randonnées journalière pour faire découvrir les beaux endroits en Algérie et de gérer un groupe</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Guide touristique et organisateur de sortie touristique-il à pour mission d'organiser des randonnées journalière pour faire découvrir les beaux endroits en Algérie et de gérer un groupe</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Prestations à domicile</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>صناعة الأثاث المنزلي</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>صاحب ورشة لصناعة الأثاث المنزلي و خاصة الأرائك</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>صناعة الأثاث المنزلي-صاحب ورشة لصناعة الأثاث المنزلي و خاصة الأرائك</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>بسكتة وحلويات ومواد الحم</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>بسكت وحلويات</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>بسكتة وحلويات ومواد الحم-بسكت وحلويات</t>
         </is>
       </c>
     </row>
@@ -1037,39 +1041,35 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
+          <t>بسكتة وحلويات ومواد الحم</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>بسكت وحلويات</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>بسكتة وحلويات ومواد الحم-بسكت وحلويات</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Paysagiste et pépinière</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Production de plantes ornementales et aménagement de jardins</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Paysagiste et pépinière-Production de plantes ornementales et aménagement de jardins</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>معالجة وتوزيع المياه</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>معالجة وتوزيع المياه</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>معالجة وتوزيع المياه-معالجة وتوزيع المياه</t>
         </is>
       </c>
     </row>
@@ -1081,76 +1081,98 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>مساعد</t>
+          <t>معالجة وتوزيع المياه</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>توجيهي الخدمات وتصحيحها</t>
+          <t>معالجة وتوزيع المياه</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>مساعد-توجيهي الخدمات وتصحيحها</t>
+          <t>معالجة وتوزيع المياه-معالجة وتوزيع المياه</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
+          <t>مساعد</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
+          <t>توجيهي الخدمات وتصحيحها</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية-Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
+          <t>مساعد-توجيهي الخدمات وتصحيحها</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services de loisirs et de récréation</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>توصيل</t>
+          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>توصيل طلبات مختلف الأنواع</t>
+          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>توصيل-توصيل طلبات مختلف الأنواع</t>
+          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية-Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Prestations à domicile</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>توصيل</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>توصيل طلبات مختلف الأنواع</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>توصيل-توصيل طلبات مختلف الأنواع</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>mécatronique</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>نشاط يشمل كل من المهارات التالية_x000D_
  الاعلام الالي _x000D_
@@ -1162,7 +1184,7 @@
 في المنازل الدكية</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>mécatronique-نشاط يشمل كل من المهارات التالية_x000D_
  الاعلام الالي _x000D_
@@ -1175,133 +1197,111 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>في المجال النفسي والتربوي والمدرسي والتعليم</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم-في المجال النفسي والتربوي والمدرسي والتعليم</t>
-        </is>
-      </c>
-    </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>في المجال النفسي والتربوي والمدرسي والتعليم</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم-في المجال النفسي والتربوي والمدرسي والتعليم</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>prestation de servieces et conseils aux organismes de formations</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Nous offrons des services de consultation spécialisés pour les organismes de formation, les aidant à optimiser leurs programmes, leurs processus et leur stratégie globale._x000D_
 une plateforme de e learning et une gestion administratives</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>prestation de servieces et conseils aux organismes de formations-Nous offrons des services de consultation spécialisés pour les organismes de formation, les aidant à optimiser leurs programmes, leurs processus et leur stratégie globale._x000D_
 une plateforme de e learning et une gestion administratives</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>خياطة</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>خياطة-مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
-        </is>
-      </c>
-    </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Prestations à domicile</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>خياطة</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>خياطة-مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>نجارة الاثاث</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>صناعة غرف نوم واثاث منازل</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>نجارة الاثاث-صناعة غرف نوم واثاث منازل</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Propriétaire Loueur de bien immobilier</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Loueur de biens immobiliers en étant propriétaire</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Propriétaire Loueur de bien immobilier-Loueur de biens immobiliers en étant propriétaire</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>تصنيع وتحويل الرخام</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>تصنيع وتحويل الرخام</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>تصنيع وتحويل الرخام-تصنيع وتحويل الرخام</t>
         </is>
       </c>
     </row>
@@ -1313,39 +1313,61 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>الحجامة والتدليك</t>
+          <t>تصنيع وتحويل الرخام</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>الحجامة</t>
+          <t>تصنيع وتحويل الرخام</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>الحجامة والتدليك-الحجامة</t>
+          <t>تصنيع وتحويل الرخام-تصنيع وتحويل الرخام</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>الحجامة والتدليك</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>الحجامة</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>الحجامة والتدليك-الحجامة</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Travaux génie civil Travaux bâtiment ou travaux maçonnerie</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Travaux bâtiment_x000D_
 Travaux publics_x000D_
 Travaux maçonnerie</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Travaux génie civil Travaux bâtiment ou travaux maçonnerie-Travaux bâtiment_x000D_
 Travaux publics_x000D_
@@ -1353,135 +1375,113 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Guide touristique</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Guide accompagnateur</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Guide touristique-Guide accompagnateur</t>
-        </is>
-      </c>
-    </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>توصيل طلبيات الزباين</t>
+          <t>Guide touristique</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ضمان توصيل طلبايت الزباين</t>
+          <t>Guide accompagnateur</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>توصيل طلبيات الزباين-ضمان توصيل طلبايت الزباين</t>
+          <t>Guide touristique-Guide accompagnateur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>تصليح الهواتف النقالة</t>
+          <t>توصيل طلبيات الزباين</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
+          <t>ضمان توصيل طلبايت الزباين</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>تصليح الهواتف النقالة-خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
+          <t>توصيل طلبيات الزباين-ضمان توصيل طلبايت الزباين</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Maintenance électricité générale</t>
+          <t>تصليح الهواتف النقالة</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
+          <t>خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Maintenance électricité générale-صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
+          <t>تصليح الهواتف النقالة-خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Voyage et excursions  en ligne</t>
+          <t>Maintenance électricité générale</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
+          <t>صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Voyage et excursions  en ligne-Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
+          <t>Maintenance électricité générale-صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Designer d'espace</t>
+          <t>Voyage et excursions  en ligne</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Concevoir les espaces et élaborer des plans détaillés et des maquettes en 3D à l'aide de logiciels de dessin. Évaluer les couts et les matériaux nécessaires. Préparer les plans et les détails d'exécution de l'aménagement final.</t>
+          <t>Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Designer d'espace-Concevoir les espaces et élaborer des plans détaillés et des maquettes en 3D à l'aide de logiciels de dessin. Évaluer les couts et les matériaux nécessaires. Préparer les plans et les détails d'exécution de l'aménagement final.</t>
+          <t>Voyage et excursions  en ligne-Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
         </is>
       </c>
     </row>
@@ -2054,126 +2054,104 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>maçon plambier</t>
+          <t>conducteur d'engins</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>maçon pour les méson individuel plombier ex</t>
+          <t>conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>maçon plambier-maçon pour les méson individuel plombier ex</t>
+          <t>conducteur d'engins-conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>conducteur d'engins</t>
+          <t>صانع محتى العاب . GAMER</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
+          <t>صانع محتوى العاب . GAMER</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>conducteur d'engins-conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
+          <t>صانع محتى العاب . GAMER-صانع محتوى العاب . GAMER</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Prestations à domicile</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>صانع محتى العاب . GAMER</t>
+          <t>انتاج منزلي</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>صانع محتوى العاب . GAMER</t>
+          <t>إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>صانع محتى العاب . GAMER-صانع محتوى العاب . GAMER</t>
+          <t>انتاج منزلي-إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>انتاج منزلي</t>
+          <t>تركيب الألواح الجبسية والديكورات</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>إنتاج وبيع الألبسة في المنزل</t>
+          <t>تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>انتاج منزلي-إنتاج وبيع الألبسة في المنزل</t>
+          <t>تركيب الألواح الجبسية والديكورات-تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>تركيب الألواح الجبسية والديكورات</t>
+          <t>خدمات التوصيل</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
+          <t>توصيل المشتريات للأشخاص</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
-        <is>
-          <t>تركيب الألواح الجبسية والديكورات-تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>خدمات التوصيل</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>توصيل المشتريات للأشخاص</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
         <is>
           <t>خدمات التوصيل-توصيل المشتريات للأشخاص</t>
         </is>

--- a/data/post_internal/discarded_internal_suggestions.xlsx
+++ b/data/post_internal/discarded_internal_suggestions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,13 +1486,35 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Designer d'espace</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Concevoir les espaces et élaborer des plans détaillés et des maquettes en 3D à l'aide de logiciels de dessin. Évaluer les couts et les matériaux nécessaires. Préparer les plans et les détails d'exécution de l'aménagement final.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Designer d'espace-Concevoir les espaces et élaborer des plans détaillés et des maquettes en 3D à l'aide de logiciels de dessin. Évaluer les couts et les matériaux nécessaires. Préparer les plans et les détails d'exécution de l'aménagement final.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Artiste plasticienne</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Artiste peintre._x000D_
 Peinture artistique. _x000D_
@@ -1500,7 +1522,7 @@
 Art abstrait et design</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Artiste plasticienne-Artiste peintre._x000D_
 Peinture artistique. _x000D_
@@ -1509,18 +1531,18 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>conseiller en ressource humaine</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Bonjour Madame.Monsieur _x000D_
 _x000D_
@@ -1530,7 +1552,7 @@
 bien cordialement.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>conseiller en ressource humaine-Bonjour Madame.Monsieur _x000D_
 _x000D_
@@ -1541,131 +1563,109 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>nettoyage et taches ménagers</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>il s'agit dune micro entreprise qui s'occupe de toutes les taches ménagers de nettoyage que ça soit dans les maisons les villas et les bureau ainsi que les entreprises et les locaux</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>nettoyage et taches ménagers-il s'agit dune micro entreprise qui s'occupe de toutes les taches ménagers de nettoyage que ça soit dans les maisons les villas et les bureau ainsi que les entreprises et les locaux</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
         <is>
           <t>construction batiment</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Construction civil et industriel</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>construction batiment-Construction civil et industriel</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>صانع حلويات تقليدية</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>صنع الحلويات التقليدية مثل الجوزية</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>صانع حلويات تقليدية-صنع الحلويات التقليدية مثل الجوزية</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>العاب الالكترونية و العاب الترفيهية</t>
+          <t>صانع حلويات تقليدية</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>الالعاب الالكترونية بأنواعها و الالعاب المتعلقة بحديقة الالعاب</t>
+          <t>صنع الحلويات التقليدية مثل الجوزية</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>العاب الالكترونية و العاب الترفيهية-الالعاب الالكترونية بأنواعها و الالعاب المتعلقة بحديقة الالعاب</t>
+          <t>صانع حلويات تقليدية-صنع الحلويات التقليدية مثل الجوزية</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services de loisirs et de récréation</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ديكور داخكي وخارجي</t>
+          <t>العاب الالكترونية و العاب الترفيهية</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>صنع ديكورات منزلية كساعات الحائط و الديكور الخارجي مثل الوحات الاعلانية</t>
+          <t>الالعاب الالكترونية بأنواعها و الالعاب المتعلقة بحديقة الالعاب</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ديكور داخكي وخارجي-صنع ديكورات منزلية كساعات الحائط و الديكور الخارجي مثل الوحات الاعلانية</t>
+          <t>العاب الالكترونية و العاب الترفيهية-الالعاب الالكترونية بأنواعها و الالعاب المتعلقة بحديقة الالعاب</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Nettoyage locaux</t>
+          <t>ديكور داخكي وخارجي</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Je suis intéressé pour la activité nettoyage locaux</t>
+          <t>صنع ديكورات منزلية كساعات الحائط و الديكور الخارجي مثل الوحات الاعلانية</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nettoyage locaux-Je suis intéressé pour la activité nettoyage locaux</t>
+          <t>ديكور داخكي وخارجي-صنع ديكورات منزلية كساعات الحائط و الديكور الخارجي مثل الوحات الاعلانية</t>
         </is>
       </c>
     </row>
@@ -1677,61 +1677,61 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Plombier général</t>
+          <t>Nettoyage locaux</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Installation sanitaire et gaz</t>
+          <t>Je suis intéressé pour la activité nettoyage locaux</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Plombier général-Installation sanitaire et gaz</t>
+          <t>Nettoyage locaux-Je suis intéressé pour la activité nettoyage locaux</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>متخصصة في القياس النفسي والتقويم التربوي</t>
+          <t>Plombier général</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
+          <t>Installation sanitaire et gaz</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>متخصصة في القياس النفسي والتقويم التربوي-تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
+          <t>Plombier général-Installation sanitaire et gaz</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>متخصصة في القياس النفسي والتقويم التربوي</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Consulting et creer les plans du projet autant que ingenieure des affaires</t>
+          <t>تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Consulting-Consulting et creer les plans du projet autant que ingenieure des affaires</t>
+          <t>متخصصة في القياس النفسي والتقويم التربوي-تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
         </is>
       </c>
     </row>
@@ -1743,17 +1743,39 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Consulting et creer les plans du projet autant que ingenieure des affaires</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Consulting-Consulting et creer les plans du projet autant que ingenieure des affaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Conseil, Expertise et formation</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>تجهيز أثاث المطابخ والمحلات</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>السلام عليك هذا النشاط العصري أصبح مطلوب فالوقت الحالي  _x000D_
 فكما نرى فالتصاميم المعاصرة للمنازل والمحلات نجد الكثير من الإبداع _x000D_
 فعليه يجب تنظيم هدا النشاط</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>تجهيز أثاث المطابخ والمحلات-السلام عليك هذا النشاط العصري أصبح مطلوب فالوقت الحالي  _x000D_
 فكما نرى فالتصاميم المعاصرة للمنازل والمحلات نجد الكثير من الإبداع _x000D_
@@ -1761,135 +1783,135 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Installateur sanitaire et thermique</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Installateur en matériel de plomberie et chauffage</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Installateur sanitaire et thermique-Installateur en matériel de plomberie et chauffage</t>
-        </is>
-      </c>
-    </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع</t>
+          <t>Installateur sanitaire et thermique</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
+          <t>Installateur en matériel de plomberie et chauffage</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع-إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
+          <t>Installateur sanitaire et thermique-Installateur en matériel de plomberie et chauffage</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chef de projet construction</t>
+          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Chef de projet construction</t>
+          <t>إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Chef de projet construction-Chef de projet construction</t>
+          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع-إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Guide touristique</t>
+          <t>Chef de projet construction</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
+          <t>Chef de projet construction</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Guide touristique-انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
+          <t>Chef de projet construction-Chef de projet construction</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>محاسبة وجباية</t>
+          <t>Guide touristique</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+          <t>انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>محاسبة وجباية-خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+          <t>Guide touristique-انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>محاسبة وجباية</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>محاسبة وجباية-خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>Services de loisirs et de récréation</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>تصميم و صناعة ديكور الأفراح</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>تصميم وصناعة أكسسوارات الورد الإصطناعي _x000D_
 تصميم وصناعة المزهريات _x000D_
 صناعة الأرائك</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>تصميم و صناعة ديكور الأفراح-تصميم وصناعة أكسسوارات الورد الإصطناعي _x000D_
 تصميم وصناعة المزهريات _x000D_
@@ -1897,69 +1919,47 @@
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Services de loisirs et de récréation</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Guide touristique</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Guide touristique rondonee et bivouac</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Guide touristique-Guide touristique rondonee et bivouac</t>
-        </is>
-      </c>
-    </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services de loisirs et de récréation</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>études et réalisation de projets de VRD</t>
+          <t>Guide touristique</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
+          <t>Guide touristique rondonee et bivouac</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>études et réalisation de projets de VRD-consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
+          <t>Guide touristique-Guide touristique rondonee et bivouac</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ممرن سياقة</t>
+          <t>études et réalisation de projets de VRD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>تعليم الناس السياقة في مراكبهم الخاصة</t>
+          <t>consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ممرن سياقة-تعليم الناس السياقة في مراكبهم الخاصة</t>
+          <t>études et réalisation de projets de VRD-consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
         </is>
       </c>
     </row>
@@ -1971,187 +1971,209 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>مشرف على اعمال كل اعمال البناء</t>
+          <t>ممرن سياقة</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>مشرف على اعمال البناء  للمنازل و المؤسسات</t>
+          <t>تعليم الناس السياقة في مراكبهم الخاصة</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>مشرف على اعمال كل اعمال البناء-مشرف على اعمال البناء  للمنازل و المؤسسات</t>
+          <t>ممرن سياقة-تعليم الناس السياقة في مراكبهم الخاصة</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Formateur  autonome</t>
+          <t>مشرف على اعمال كل اعمال البناء</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
+          <t>مشرف على اعمال البناء  للمنازل و المؤسسات</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Formateur  autonome-Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
+          <t>مشرف على اعمال كل اعمال البناء-مشرف على اعمال البناء  للمنازل و المؤسسات</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Technicien smartphone</t>
+          <t>Formateur  autonome</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>تصليح الهواتف الذكية</t>
+          <t>Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Technicien smartphone-تصليح الهواتف الذكية</t>
+          <t>Formateur  autonome-Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services numériques et activités connexes</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Conducteur de travaux</t>
+          <t>Technicien smartphone</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Conducteur de travaux</t>
+          <t>تصليح الهواتف الذكية</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Conducteur de travaux-Conducteur de travaux</t>
+          <t>Technicien smartphone-تصليح الهواتف الذكية</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>Conducteur de travaux</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Conducteur de travaux</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Conducteur de travaux-Conducteur de travaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>conducteur d'engins</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>conducteur d'engins-conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
         <is>
           <t>صانع محتى العاب . GAMER</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>صانع محتوى العاب . GAMER</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>صانع محتى العاب . GAMER-صانع محتوى العاب . GAMER</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>انتاج منزلي</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>إنتاج وبيع الألبسة في المنزل</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>انتاج منزلي-إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>تركيب الألواح الجبسية والديكورات</t>
+          <t>انتاج منزلي</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
+          <t>إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>تركيب الألواح الجبسية والديكورات-تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
+          <t>انتاج منزلي-إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>تركيب الألواح الجبسية والديكورات</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>تركيب الألواح الجبسية والديكورات-تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>خدمات التوصيل</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>توصيل المشتريات للأشخاص</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>خدمات التوصيل-توصيل المشتريات للأشخاص</t>
         </is>
